--- a/src/test/doc/系统产品体系.xlsx
+++ b/src/test/doc/系统产品体系.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\portal\src\test\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="19275" windowHeight="8895"/>
   </bookViews>
@@ -313,147 +318,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港十元塑料钞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛园艺博览会三连体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏奥会十连号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝鲜三连体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴西世界杯三连体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天整版钞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环球财富(38国)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猴年整版测试钞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14年和字币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶壶套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五套人民币豹子号(一顺百顺)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96沈阳故宫套票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可托管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可托管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠送类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天钞豹子号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航天钞十连号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>赠品类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赠品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>香港十元塑料钞</t>
+    <t>北极三连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巴西奥运体三连体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>十二生肖测试钞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青岛园艺博览会三连体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏奥会十连号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北极三连</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朝鲜三连体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴西奥运体三连体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巴西世界杯三连体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航天整版钞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环球财富(38国)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猴年整版测试钞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14年和字币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶壶套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第五套人民币豹子号(一顺百顺)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>96沈阳故宫套票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可托管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵金属</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可托管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠送类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航天钞豹子号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航天钞十连号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -462,12 +467,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -554,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,15 +581,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,12 +592,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -640,7 +670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -672,9 +702,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,6 +737,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -881,14 +913,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E74" sqref="B62:F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
@@ -897,28 +929,28 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25">
-      <c r="A1" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>95</v>
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -927,13 +959,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>96</v>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -945,11 +977,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="2">
@@ -959,11 +991,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="2">
         <v>3</v>
       </c>
@@ -971,11 +1003,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="2">
         <v>4</v>
       </c>
@@ -983,11 +1015,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2">
@@ -997,11 +1029,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="2">
         <v>6</v>
       </c>
@@ -1009,11 +1041,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="2">
         <v>7</v>
       </c>
@@ -1021,11 +1053,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="2">
         <v>8</v>
       </c>
@@ -1033,11 +1065,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="2">
         <v>9</v>
       </c>
@@ -1045,11 +1077,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="2">
         <v>10</v>
       </c>
@@ -1057,11 +1089,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="E13" s="2">
         <v>11</v>
       </c>
@@ -1069,11 +1101,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="2">
@@ -1083,11 +1115,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2">
         <v>13</v>
       </c>
@@ -1095,11 +1127,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2">
         <v>14</v>
       </c>
@@ -1107,11 +1139,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2">
         <v>15</v>
       </c>
@@ -1119,11 +1151,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2">
         <v>16</v>
       </c>
@@ -1131,11 +1163,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2">
         <v>17</v>
       </c>
@@ -1143,11 +1175,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2">
         <v>18</v>
       </c>
@@ -1155,11 +1187,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2">
         <v>19</v>
       </c>
@@ -1167,11 +1199,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2">
         <v>20</v>
       </c>
@@ -1179,13 +1211,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>97</v>
+      <c r="C23" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>27</v>
@@ -1197,10 +1229,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
@@ -1211,11 +1243,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="2">
@@ -1225,11 +1257,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2">
         <v>24</v>
       </c>
@@ -1237,11 +1269,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2">
         <v>25</v>
       </c>
@@ -1249,11 +1281,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="2">
@@ -1263,11 +1295,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2">
         <v>27</v>
       </c>
@@ -1275,11 +1307,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="2">
@@ -1289,23 +1321,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="2">
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="2">
         <v>30</v>
       </c>
@@ -1313,11 +1345,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="2">
@@ -1327,11 +1359,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="2">
         <v>32</v>
       </c>
@@ -1339,10 +1371,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="2" t="s">
         <v>43</v>
       </c>
@@ -1353,10 +1385,10 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="2" t="s">
         <v>45</v>
       </c>
@@ -1367,10 +1399,10 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="2" t="s">
         <v>46</v>
       </c>
@@ -1381,29 +1413,29 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4">
         <v>3</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="C38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E38" s="2">
         <v>36</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="2">
         <v>37</v>
       </c>
@@ -1411,10 +1443,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
       <c r="D40" s="2" t="s">
         <v>51</v>
       </c>
@@ -1425,17 +1457,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="7">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E41" s="2">
@@ -1445,11 +1477,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="2">
         <v>40</v>
       </c>
@@ -1457,11 +1489,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E43" s="2">
@@ -1471,11 +1503,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="2">
         <v>42</v>
       </c>
@@ -1483,11 +1515,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="2">
         <v>43</v>
       </c>
@@ -1495,11 +1527,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="2">
         <v>44</v>
       </c>
@@ -1507,11 +1539,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="2">
         <v>45</v>
       </c>
@@ -1519,11 +1551,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="2">
         <v>46</v>
       </c>
@@ -1531,11 +1563,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="2">
         <v>47</v>
       </c>
@@ -1543,25 +1575,25 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E50" s="2">
         <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="2">
         <v>49</v>
       </c>
@@ -1569,11 +1601,11 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="2">
         <v>50</v>
       </c>
@@ -1581,11 +1613,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="2">
         <v>51</v>
       </c>
@@ -1593,11 +1625,11 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="2">
         <v>52</v>
       </c>
@@ -1605,11 +1637,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="2">
         <v>53</v>
       </c>
@@ -1617,10 +1649,10 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="2" t="s">
         <v>70</v>
       </c>
@@ -1631,27 +1663,27 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="7"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
       <c r="B57" s="2">
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4">
         <v>3</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" s="7"/>
+      <c r="C58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="2">
         <v>55</v>
       </c>
@@ -1659,11 +1691,11 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="2">
         <v>56</v>
       </c>
@@ -1671,240 +1703,240 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="20.25">
-      <c r="A60" s="10" t="s">
+    <row r="60" spans="1:6" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7">
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4">
         <v>1</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>78</v>
+      <c r="C62" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D62" s="2">
         <v>1</v>
       </c>
-      <c r="E62" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
+      <c r="E62" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
       <c r="D63" s="2">
         <v>2</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
+      <c r="E63" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
       <c r="D64" s="2">
         <v>3</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
+      <c r="E64" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
       <c r="D65" s="2">
         <v>4</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
+      <c r="E65" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
       <c r="D66" s="2">
         <v>5</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="E66" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
       <c r="D67" s="2">
         <v>6</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
+      <c r="E67" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="2">
         <v>7</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
+      <c r="E68" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="2">
         <v>8</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
+      <c r="E69" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
       <c r="D70" s="2">
         <v>9</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
+      <c r="E70" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
       <c r="D71" s="2">
         <v>10</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
+      <c r="E71" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="2">
         <v>11</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
+      <c r="E72" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
       <c r="D73" s="2">
         <v>12</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
+      <c r="E73" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
       <c r="D74" s="3">
         <v>13</v>
       </c>
-      <c r="E74" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="4">
+      <c r="E74" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A75" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="8">
         <v>2</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>105</v>
+      <c r="C75" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="D75" s="2">
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
       <c r="D76" s="2">
         <v>2</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
       <c r="D77" s="2">
         <v>3</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
       <c r="D78" s="2">
         <v>4</v>
       </c>
@@ -1915,33 +1947,15 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="D43:D49"/>
-    <mergeCell ref="D50:D55"/>
-    <mergeCell ref="C41:C56"/>
-    <mergeCell ref="B41:B56"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D14:D22"/>
-    <mergeCell ref="C3:C22"/>
-    <mergeCell ref="B3:B22"/>
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C23:C37"/>
-    <mergeCell ref="B23:B37"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="C75:C78"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C62:C74"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="A41:A59"/>
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="E74:F74"/>
     <mergeCell ref="A61:A74"/>
@@ -1952,15 +1966,33 @@
     <mergeCell ref="E71:F71"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="B62:B74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="C75:C78"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C62:C74"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="A41:A59"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="B3:B22"/>
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C23:C37"/>
+    <mergeCell ref="B23:B37"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D14:D22"/>
+    <mergeCell ref="C3:C22"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="D43:D49"/>
+    <mergeCell ref="D50:D55"/>
+    <mergeCell ref="C41:C56"/>
+    <mergeCell ref="B41:B56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.56999999999999995" right="0.75" top="0.36" bottom="1" header="0.5" footer="0.5"/>
@@ -1970,12 +2002,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
